--- a/test-document/Test case.xlsx
+++ b/test-document/Test case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tự học\Software testing\Automation-with-Playwright\test-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C288234-E0CE-4651-8F2E-55FBC8E66407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B92EB44-9C87-42AE-9A41-9394194B242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="914" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="33" r:id="rId1"/>
@@ -8861,8 +8861,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:K35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9551,7 +9551,7 @@
       <c r="J25" s="34"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>482</v>
       </c>
@@ -10235,7 +10235,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:K22"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11598,7 +11598,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>607</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>613</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>620</v>
       </c>
@@ -12918,7 +12918,7 @@
       <c r="J4" s="34"/>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="150" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>677</v>
       </c>
@@ -12945,7 +12945,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="33"/>
     </row>
-    <row r="6" spans="1:11" ht="150" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>679</v>
       </c>
@@ -12972,7 +12972,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>681</v>
       </c>
@@ -12999,7 +12999,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="150" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>683</v>
       </c>
@@ -13682,7 +13682,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -15825,7 +15825,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>807</v>
       </c>
@@ -16525,7 +16525,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>807</v>
       </c>
@@ -18689,7 +18689,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:K24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19387,8 +19387,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20145,8 +20145,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:K39"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20566,7 +20566,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="150" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>329</v>
       </c>
@@ -20674,7 +20674,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="262.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="243.75" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>337</v>
       </c>
@@ -21250,8 +21250,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21454,7 +21454,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>386</v>
       </c>
@@ -21481,7 +21481,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="33"/>
     </row>
-    <row r="9" spans="1:11" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>387</v>
       </c>
